--- a/DataConversion/CAR.xlsx
+++ b/DataConversion/CAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\Facturation\Migration infos clients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataConversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B045AD62-D0BE-4FD6-9E33-8DFDC51FE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A0C4E-B284-4110-BB69-B7D334223264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="90" windowWidth="29040" windowHeight="15840" xr2:uid="{073B5AF3-DA89-4232-B5A1-3256858C2CC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{073B5AF3-DA89-4232-B5A1-3256858C2CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="CAR" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAR!$A$3:$G$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAR!$A$1:$G$120</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CAR!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CAR!$1:$1</definedName>
     <definedName name="Liste_clients">[1]Clients!$B$2:$B$1258</definedName>
     <definedName name="Liste_de_comptes_de_GL">'[1]Comptes GL'!$B$7:$B$66</definedName>
     <definedName name="taxes">'[1]Liste choix'!$C$6:$C$7</definedName>
     <definedName name="Taxesv2">'[1]Liste choix'!$C$6:$C$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CAR!$A$1:$G$123</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CAR!$A$1:$G$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,31 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
-  <si>
-    <t>SUIVI DES COMPTES À RECEVOIR</t>
-  </si>
-  <si>
-    <t>NOM DU CLIENT</t>
-  </si>
-  <si>
-    <t>DATE DE LA FACTURE</t>
-  </si>
-  <si>
-    <t>#FACTURE</t>
-  </si>
-  <si>
-    <t>MONTANT FACTURE</t>
-  </si>
-  <si>
-    <t>MONTANT REÇU</t>
-  </si>
-  <si>
-    <t>Date reçue</t>
-  </si>
-  <si>
-    <t>MONTANT CAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>1715 - Sébastien Fortier (Société)</t>
   </si>
@@ -343,55 +319,43 @@
     <t>127 - Sauvageau Hanley CPA Inc.</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>CLIENT</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>No_Fact</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Reçu</t>
+  </si>
+  <si>
+    <t>Date_Reçu</t>
+  </si>
+  <si>
+    <t>Solde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C0C]d\ mmm\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-C0C]d\ mmmm\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;$&quot;_-;_-* #,##0.00\ &quot;$&quot;\-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF625850"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,6 +370,21 @@
     <font>
       <sz val="10"/>
       <color indexed="63"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -437,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -453,82 +432,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -536,45 +439,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +482,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB4DE86"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7564,2493 +7463,2686 @@
     <tabColor rgb="FF8C8375"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="20"/>
-    <col min="9" max="9" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="57.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45269</v>
+      </c>
+      <c r="C2" s="10">
+        <v>23466</v>
+      </c>
+      <c r="D2" s="12">
+        <v>4728.3500000000004</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="14">
+        <f t="shared" ref="G2:G65" si="0">D2-E2</f>
+        <v>4728.3500000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45341</v>
+      </c>
+      <c r="C3" s="10">
+        <v>24059</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1408.44</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="14">
+        <f t="shared" si="0"/>
+        <v>1408.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>45269</v>
+      <c r="B4" s="6">
+        <v>45379</v>
       </c>
       <c r="C4" s="10">
-        <v>23466</v>
-      </c>
-      <c r="D4" s="11">
-        <v>4728.3500000000004</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+        <v>24133</v>
+      </c>
+      <c r="D4" s="12">
+        <v>13983.84</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G67" si="0">D4-E4</f>
-        <v>4728.3500000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>13983.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
-        <v>45341</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45379</v>
       </c>
       <c r="C5" s="10">
-        <v>24059</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1408.44</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+        <v>24134</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1609.65</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>1408.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1609.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9">
-        <v>45379</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45423</v>
       </c>
       <c r="C6" s="10">
-        <v>24133</v>
-      </c>
-      <c r="D6" s="11">
-        <v>13983.84</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+        <v>24224</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7631.47</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>13983.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7631.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>45379</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45424</v>
       </c>
       <c r="C7" s="10">
-        <v>24134</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1609.65</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+        <v>24240</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1207.24</v>
+      </c>
+      <c r="E7" s="12">
+        <v>607.24</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45489</v>
+      </c>
       <c r="G7" s="14">
         <f t="shared" si="0"/>
-        <v>1609.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>45423</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45438</v>
       </c>
       <c r="C8" s="10">
-        <v>24224</v>
-      </c>
-      <c r="D8" s="11">
-        <v>7631.47</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+        <v>24268</v>
+      </c>
+      <c r="D8" s="12">
+        <v>9255.49</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="14">
         <f t="shared" si="0"/>
-        <v>7631.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9255.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>45424</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45444</v>
       </c>
       <c r="C9" s="10">
-        <v>24240</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1207.24</v>
+        <v>24292</v>
+      </c>
+      <c r="D9" s="12">
+        <v>201.21</v>
       </c>
       <c r="E9" s="12">
-        <v>607.24</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>45438</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45460</v>
       </c>
       <c r="C10" s="10">
-        <v>24268</v>
-      </c>
-      <c r="D10" s="11">
-        <v>9255.49</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+        <v>24324</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1911.46</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>9255.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1911.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
-        <v>45444</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45467</v>
       </c>
       <c r="C11" s="10">
-        <v>24292</v>
-      </c>
-      <c r="D11" s="11">
-        <v>201.21</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+        <v>24336</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1609.65</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>201.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1609.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>45460</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45467</v>
       </c>
       <c r="C12" s="10">
-        <v>24324</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1911.46</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+        <v>24337</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1609.65</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>1911.46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1609.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
         <v>45467</v>
       </c>
       <c r="C13" s="10">
-        <v>24336</v>
-      </c>
-      <c r="D13" s="11">
+        <v>24338</v>
+      </c>
+      <c r="D13" s="12">
         <v>1609.65</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>1609.65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6">
         <v>45467</v>
       </c>
       <c r="C14" s="10">
-        <v>24337</v>
-      </c>
-      <c r="D14" s="11">
+        <v>24339</v>
+      </c>
+      <c r="D14" s="12">
         <v>1609.65</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>1609.65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
         <v>45467</v>
       </c>
       <c r="C15" s="10">
-        <v>24338</v>
-      </c>
-      <c r="D15" s="11">
+        <v>24340</v>
+      </c>
+      <c r="D15" s="12">
         <v>1609.65</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>1609.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
         <v>45467</v>
       </c>
       <c r="C16" s="10">
-        <v>24339</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1609.65</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+        <v>24341</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1106.6400000000001</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>1609.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6">
         <v>45467</v>
       </c>
       <c r="C17" s="10">
-        <v>24340</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1609.65</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+        <v>24342</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1106.6400000000001</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>1609.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
         <v>45467</v>
       </c>
       <c r="C18" s="10">
-        <v>24341</v>
-      </c>
-      <c r="D18" s="11">
+        <v>24343</v>
+      </c>
+      <c r="D18" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
         <v>45467</v>
       </c>
       <c r="C19" s="10">
-        <v>24342</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+        <v>24344</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1810.86</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>1106.6400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1810.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6">
         <v>45467</v>
       </c>
       <c r="C20" s="10">
-        <v>24343</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+        <v>24345</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1810.86</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
+        <v>1810.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45467</v>
+      </c>
+      <c r="C21" s="10">
+        <v>24346</v>
+      </c>
+      <c r="D21" s="12">
         <v>1106.6400000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="9">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="10">
-        <v>24344</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1810.86</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>1810.86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
         <v>45467</v>
       </c>
       <c r="C22" s="10">
-        <v>24345</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1810.86</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+        <v>24347</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1106.6400000000001</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>1810.86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="9">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
         <v>45467</v>
       </c>
       <c r="C23" s="10">
-        <v>24346</v>
-      </c>
-      <c r="D23" s="11">
+        <v>24348</v>
+      </c>
+      <c r="D23" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="9">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6">
         <v>45467</v>
       </c>
       <c r="C24" s="10">
-        <v>24347</v>
-      </c>
-      <c r="D24" s="11">
+        <v>24349</v>
+      </c>
+      <c r="D24" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
         <v>45467</v>
       </c>
       <c r="C25" s="10">
-        <v>24348</v>
-      </c>
-      <c r="D25" s="11">
+        <v>24351</v>
+      </c>
+      <c r="D25" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6">
         <v>45467</v>
       </c>
       <c r="C26" s="10">
-        <v>24349</v>
-      </c>
-      <c r="D26" s="11">
+        <v>24352</v>
+      </c>
+      <c r="D26" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
         <v>45467</v>
       </c>
       <c r="C27" s="10">
-        <v>24351</v>
-      </c>
-      <c r="D27" s="11">
+        <v>24353</v>
+      </c>
+      <c r="D27" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6">
         <v>45467</v>
       </c>
       <c r="C28" s="10">
-        <v>24352</v>
-      </c>
-      <c r="D28" s="11">
+        <v>24354</v>
+      </c>
+      <c r="D28" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="9">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6">
         <v>45467</v>
       </c>
       <c r="C29" s="10">
-        <v>24353</v>
-      </c>
-      <c r="D29" s="11">
+        <v>24355</v>
+      </c>
+      <c r="D29" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
         <v>45467</v>
       </c>
       <c r="C30" s="10">
-        <v>24354</v>
-      </c>
-      <c r="D30" s="11">
+        <v>24356</v>
+      </c>
+      <c r="D30" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="9">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6">
         <v>45467</v>
       </c>
       <c r="C31" s="10">
-        <v>24355</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
+        <v>24357</v>
+      </c>
+      <c r="D31" s="12">
+        <v>5633.78</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>1106.6400000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5633.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="9">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6">
         <v>45467</v>
       </c>
       <c r="C32" s="10">
-        <v>24356</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+        <v>24359</v>
+      </c>
+      <c r="D32" s="12">
+        <v>16700.12</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>1106.6400000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16700.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="9">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6">
         <v>45467</v>
       </c>
       <c r="C33" s="10">
-        <v>24357</v>
-      </c>
-      <c r="D33" s="11">
-        <v>5633.78</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
+        <v>24361</v>
+      </c>
+      <c r="D33" s="12">
+        <v>8450.66</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>5633.78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8450.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="9">
-        <v>45467</v>
+        <v>9</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45500</v>
       </c>
       <c r="C34" s="10">
-        <v>24359</v>
-      </c>
-      <c r="D34" s="11">
-        <v>16700.12</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
+        <v>24363</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2515.08</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>16700.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2515.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="9">
-        <v>45467</v>
+        <v>10</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45500</v>
       </c>
       <c r="C35" s="10">
-        <v>24361</v>
-      </c>
-      <c r="D35" s="11">
-        <v>8450.66</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
+        <v>24370</v>
+      </c>
+      <c r="D35" s="12">
+        <v>402.41</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>8450.66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>402.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="9">
+        <v>11</v>
+      </c>
+      <c r="B36" s="6">
         <v>45500</v>
       </c>
       <c r="C36" s="10">
-        <v>24363</v>
-      </c>
-      <c r="D36" s="11">
-        <v>2515.08</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
+        <v>24371</v>
+      </c>
+      <c r="D36" s="12">
+        <v>603.62</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="14">
         <f t="shared" si="0"/>
-        <v>2515.08</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>603.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="9">
+        <v>12</v>
+      </c>
+      <c r="B37" s="6">
         <v>45500</v>
       </c>
       <c r="C37" s="10">
-        <v>24370</v>
-      </c>
-      <c r="D37" s="11">
-        <v>402.41</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
+        <v>24372</v>
+      </c>
+      <c r="D37" s="12">
+        <v>11871.17</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>402.41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11871.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="9">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6">
         <v>45500</v>
       </c>
       <c r="C38" s="10">
-        <v>24371</v>
-      </c>
-      <c r="D38" s="11">
-        <v>603.62</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
+        <v>24373</v>
+      </c>
+      <c r="D38" s="12">
+        <v>503.02</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>603.62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>503.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="9">
+        <v>14</v>
+      </c>
+      <c r="B39" s="6">
         <v>45500</v>
       </c>
       <c r="C39" s="10">
-        <v>24372</v>
-      </c>
-      <c r="D39" s="11">
-        <v>11871.17</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
+        <v>24374</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2816.89</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>11871.17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2816.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="9">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6">
         <v>45500</v>
       </c>
       <c r="C40" s="10">
-        <v>24373</v>
-      </c>
-      <c r="D40" s="11">
-        <v>503.02</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
+        <v>24375</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1192.8699999999999</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6"/>
       <c r="G40" s="14">
         <f t="shared" si="0"/>
-        <v>503.02</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1192.8699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="9">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6">
         <v>45500</v>
       </c>
       <c r="C41" s="10">
-        <v>24374</v>
-      </c>
-      <c r="D41" s="11">
-        <v>2816.89</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
+        <v>24378</v>
+      </c>
+      <c r="D41" s="12">
+        <v>201.21</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="14">
         <f t="shared" si="0"/>
-        <v>2816.89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="9">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6">
         <v>45500</v>
       </c>
       <c r="C42" s="10">
-        <v>24375</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1192.8699999999999</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
+        <v>24379</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2112.67</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="14">
         <f t="shared" si="0"/>
-        <v>1192.8699999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2112.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="9">
+        <v>18</v>
+      </c>
+      <c r="B43" s="6">
         <v>45500</v>
       </c>
       <c r="C43" s="10">
-        <v>24378</v>
-      </c>
-      <c r="D43" s="11">
+        <v>24381</v>
+      </c>
+      <c r="D43" s="12">
         <v>201.21</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="14">
         <f t="shared" si="0"/>
         <v>201.21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="9">
+        <v>19</v>
+      </c>
+      <c r="B44" s="6">
         <v>45500</v>
       </c>
       <c r="C44" s="10">
-        <v>24379</v>
-      </c>
-      <c r="D44" s="11">
-        <v>2112.67</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
+        <v>24382</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1307.8499999999999</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="14">
         <f t="shared" si="0"/>
-        <v>2112.67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1307.8499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="9">
+        <v>20</v>
+      </c>
+      <c r="B45" s="6">
         <v>45500</v>
       </c>
       <c r="C45" s="10">
-        <v>24381</v>
-      </c>
-      <c r="D45" s="11">
-        <v>201.21</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
+        <v>24384</v>
+      </c>
+      <c r="D45" s="12">
+        <v>15432.52</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6"/>
       <c r="G45" s="14">
         <f t="shared" si="0"/>
-        <v>201.21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15432.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="9">
+        <v>21</v>
+      </c>
+      <c r="B46" s="6">
         <v>45500</v>
       </c>
       <c r="C46" s="10">
-        <v>24382</v>
-      </c>
-      <c r="D46" s="11">
-        <v>1307.8499999999999</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
+        <v>24385</v>
+      </c>
+      <c r="D46" s="12">
+        <v>9959.7099999999991</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="14">
         <f t="shared" si="0"/>
-        <v>1307.8499999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9959.7099999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="9">
+        <v>22</v>
+      </c>
+      <c r="B47" s="6">
         <v>45500</v>
       </c>
       <c r="C47" s="10">
-        <v>24384</v>
-      </c>
-      <c r="D47" s="11">
-        <v>15432.52</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
+        <v>24386</v>
+      </c>
+      <c r="D47" s="12">
+        <v>5533.18</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="G47" s="14">
         <f t="shared" si="0"/>
-        <v>15432.52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5533.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="9">
+        <v>23</v>
+      </c>
+      <c r="B48" s="6">
         <v>45500</v>
       </c>
       <c r="C48" s="10">
-        <v>24385</v>
-      </c>
-      <c r="D48" s="11">
-        <v>9959.7099999999991</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
+        <v>24388</v>
+      </c>
+      <c r="D48" s="12">
+        <v>3018.09</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="14">
         <f t="shared" si="0"/>
-        <v>9959.7099999999991</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3018.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="9">
-        <v>45500</v>
+        <v>24</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45501</v>
       </c>
       <c r="C49" s="10">
-        <v>24386</v>
-      </c>
-      <c r="D49" s="11">
-        <v>5533.18</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
+        <v>24389</v>
+      </c>
+      <c r="D49" s="12">
+        <v>201.21</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6"/>
       <c r="G49" s="14">
         <f t="shared" si="0"/>
-        <v>5533.18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="9">
-        <v>45500</v>
+        <v>25</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45501</v>
       </c>
       <c r="C50" s="10">
-        <v>24388</v>
-      </c>
-      <c r="D50" s="11">
-        <v>3018.09</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
+        <v>24390</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2313.88</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="14">
         <f t="shared" si="0"/>
-        <v>3018.09</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2313.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="9">
+        <v>26</v>
+      </c>
+      <c r="B51" s="6">
         <v>45501</v>
       </c>
       <c r="C51" s="10">
-        <v>24389</v>
-      </c>
-      <c r="D51" s="11">
+        <v>24391</v>
+      </c>
+      <c r="D51" s="12">
         <v>201.21</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="14">
         <f t="shared" si="0"/>
         <v>201.21</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="9">
+        <v>27</v>
+      </c>
+      <c r="B52" s="6">
         <v>45501</v>
       </c>
       <c r="C52" s="10">
-        <v>24390</v>
-      </c>
-      <c r="D52" s="11">
-        <v>2313.88</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
+        <v>24393</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1810.86</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="14">
         <f t="shared" si="0"/>
-        <v>2313.88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1810.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="9">
+        <v>28</v>
+      </c>
+      <c r="B53" s="6">
         <v>45501</v>
       </c>
       <c r="C53" s="10">
-        <v>24391</v>
-      </c>
-      <c r="D53" s="11">
-        <v>201.21</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
+        <v>24395</v>
+      </c>
+      <c r="D53" s="12">
+        <v>5188.25</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6"/>
       <c r="G53" s="14">
         <f t="shared" si="0"/>
-        <v>201.21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5188.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="9">
+        <v>29</v>
+      </c>
+      <c r="B54" s="6">
         <v>45501</v>
       </c>
       <c r="C54" s="10">
-        <v>24393</v>
-      </c>
-      <c r="D54" s="11">
-        <v>1810.86</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
+        <v>24396</v>
+      </c>
+      <c r="D54" s="12">
+        <v>3822.92</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="14">
         <f t="shared" si="0"/>
-        <v>1810.86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3822.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="9">
+        <v>30</v>
+      </c>
+      <c r="B55" s="6">
         <v>45501</v>
       </c>
       <c r="C55" s="10">
-        <v>24395</v>
-      </c>
-      <c r="D55" s="11">
-        <v>5188.25</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
+        <v>24398</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1408.44</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6"/>
       <c r="G55" s="14">
         <f t="shared" si="0"/>
-        <v>5188.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1408.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="9">
+        <v>31</v>
+      </c>
+      <c r="B56" s="6">
         <v>45501</v>
       </c>
       <c r="C56" s="10">
-        <v>24396</v>
-      </c>
-      <c r="D56" s="11">
-        <v>3822.92</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
+        <v>24399</v>
+      </c>
+      <c r="D56" s="12">
+        <v>301.81</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="14">
         <f t="shared" si="0"/>
-        <v>3822.92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="9">
+        <v>32</v>
+      </c>
+      <c r="B57" s="6">
         <v>45501</v>
       </c>
       <c r="C57" s="10">
-        <v>24398</v>
-      </c>
-      <c r="D57" s="11">
-        <v>1408.44</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
+        <v>24400</v>
+      </c>
+      <c r="D57" s="12">
+        <v>301.81</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6"/>
       <c r="G57" s="14">
         <f t="shared" si="0"/>
-        <v>1408.44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301.81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="9">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6">
         <v>45501</v>
       </c>
       <c r="C58" s="10">
-        <v>24399</v>
-      </c>
-      <c r="D58" s="11">
-        <v>301.81</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
+        <v>24401</v>
+      </c>
+      <c r="D58" s="12">
+        <v>3621.71</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="14">
         <f t="shared" si="0"/>
-        <v>301.81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3621.71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="9">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6">
         <v>45501</v>
       </c>
       <c r="C59" s="10">
-        <v>24400</v>
-      </c>
-      <c r="D59" s="11">
-        <v>301.81</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
+        <v>24402</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1106.6400000000001</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6"/>
       <c r="G59" s="14">
         <f t="shared" si="0"/>
-        <v>301.81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="9">
+        <v>6</v>
+      </c>
+      <c r="B60" s="6">
         <v>45501</v>
       </c>
       <c r="C60" s="10">
-        <v>24401</v>
-      </c>
-      <c r="D60" s="11">
-        <v>3621.71</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
+        <v>24403</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1106.6400000000001</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="14">
         <f t="shared" si="0"/>
-        <v>3621.71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="9">
+        <v>6</v>
+      </c>
+      <c r="B61" s="6">
         <v>45501</v>
       </c>
       <c r="C61" s="10">
-        <v>24402</v>
-      </c>
-      <c r="D61" s="11">
+        <v>24404</v>
+      </c>
+      <c r="D61" s="12">
         <v>1106.6400000000001</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="14">
         <f t="shared" si="0"/>
         <v>1106.6400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="9">
+        <v>33</v>
+      </c>
+      <c r="B62" s="6">
         <v>45501</v>
       </c>
       <c r="C62" s="10">
-        <v>24403</v>
-      </c>
-      <c r="D62" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
+        <v>24405</v>
+      </c>
+      <c r="D62" s="12">
+        <v>804.83</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="14">
         <f t="shared" si="0"/>
-        <v>1106.6400000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>804.83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="9">
+        <v>34</v>
+      </c>
+      <c r="B63" s="6">
         <v>45501</v>
       </c>
       <c r="C63" s="10">
-        <v>24404</v>
-      </c>
-      <c r="D63" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
+        <v>24406</v>
+      </c>
+      <c r="D63" s="12">
+        <v>4325.9399999999996</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="14">
         <f t="shared" si="0"/>
-        <v>1106.6400000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4325.9399999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="9">
+        <v>35</v>
+      </c>
+      <c r="B64" s="6">
         <v>45501</v>
       </c>
       <c r="C64" s="10">
-        <v>24405</v>
-      </c>
-      <c r="D64" s="11">
+        <v>24408</v>
+      </c>
+      <c r="D64" s="12">
         <v>804.83</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="14">
         <f t="shared" si="0"/>
         <v>804.83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="9">
+        <v>36</v>
+      </c>
+      <c r="B65" s="6">
         <v>45501</v>
       </c>
       <c r="C65" s="10">
-        <v>24406</v>
-      </c>
-      <c r="D65" s="11">
-        <v>4325.9399999999996</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
+        <v>24410</v>
+      </c>
+      <c r="D65" s="12">
+        <v>3578.6</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6"/>
       <c r="G65" s="14">
         <f t="shared" si="0"/>
-        <v>4325.9399999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3578.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="9">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6">
         <v>45501</v>
       </c>
       <c r="C66" s="10">
-        <v>24408</v>
-      </c>
-      <c r="D66" s="11">
-        <v>804.83</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
+        <v>24411</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2263.5700000000002</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="14">
-        <f t="shared" si="0"/>
-        <v>804.83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G66:G120" si="1">D66-E66</f>
+        <v>2263.5700000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="9">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6">
         <v>45501</v>
       </c>
       <c r="C67" s="10">
-        <v>24410</v>
-      </c>
-      <c r="D67" s="11">
-        <v>3578.6</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
+        <v>24412</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2263.5700000000002</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6"/>
       <c r="G67" s="14">
-        <f t="shared" si="0"/>
-        <v>3578.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2263.5700000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="9">
+        <v>37</v>
+      </c>
+      <c r="B68" s="6">
         <v>45501</v>
       </c>
       <c r="C68" s="10">
-        <v>24411</v>
-      </c>
-      <c r="D68" s="11">
-        <v>2263.5700000000002</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
+        <v>24413</v>
+      </c>
+      <c r="D68" s="12">
+        <v>7976.4</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="14">
-        <f t="shared" ref="G68:G122" si="1">D68-E68</f>
-        <v>2263.5700000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7976.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="9">
+        <v>38</v>
+      </c>
+      <c r="B69" s="6">
         <v>45501</v>
       </c>
       <c r="C69" s="10">
-        <v>24412</v>
-      </c>
-      <c r="D69" s="11">
-        <v>2263.5700000000002</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
+        <v>24415</v>
+      </c>
+      <c r="D69" s="12">
+        <v>5432.57</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="14">
         <f t="shared" si="1"/>
-        <v>2263.5700000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5432.57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="9">
+        <v>39</v>
+      </c>
+      <c r="B70" s="6">
         <v>45501</v>
       </c>
       <c r="C70" s="10">
-        <v>24413</v>
-      </c>
-      <c r="D70" s="11">
-        <v>7976.4</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
+        <v>24416</v>
+      </c>
+      <c r="D70" s="12">
+        <v>563.38</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6"/>
       <c r="G70" s="14">
         <f t="shared" si="1"/>
-        <v>7976.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>563.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="9">
+        <v>40</v>
+      </c>
+      <c r="B71" s="6">
         <v>45501</v>
       </c>
       <c r="C71" s="10">
-        <v>24415</v>
-      </c>
-      <c r="D71" s="11">
-        <v>5432.57</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
+        <v>24417</v>
+      </c>
+      <c r="D71" s="12">
+        <v>201.21</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6"/>
       <c r="G71" s="14">
         <f t="shared" si="1"/>
-        <v>5432.57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201.21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="9">
+        <v>41</v>
+      </c>
+      <c r="B72" s="6">
         <v>45501</v>
       </c>
       <c r="C72" s="10">
-        <v>24416</v>
-      </c>
-      <c r="D72" s="11">
-        <v>563.38</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
+        <v>24419</v>
+      </c>
+      <c r="D72" s="12">
+        <v>18812.79</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="14">
         <f t="shared" si="1"/>
-        <v>563.38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18812.79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="9">
+        <v>42</v>
+      </c>
+      <c r="B73" s="6">
         <v>45501</v>
       </c>
       <c r="C73" s="10">
-        <v>24417</v>
-      </c>
-      <c r="D73" s="11">
-        <v>201.21</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
+        <v>24420</v>
+      </c>
+      <c r="D73" s="12">
+        <v>11368.16</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="14">
         <f t="shared" si="1"/>
-        <v>201.21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11368.16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="9">
+        <v>42</v>
+      </c>
+      <c r="B74" s="6">
         <v>45501</v>
       </c>
       <c r="C74" s="10">
-        <v>24419</v>
-      </c>
-      <c r="D74" s="11">
-        <v>18812.79</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
+        <v>24421</v>
+      </c>
+      <c r="D74" s="12">
+        <v>2213.27</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6"/>
       <c r="G74" s="14">
         <f t="shared" si="1"/>
-        <v>18812.79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2213.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="9">
+        <v>43</v>
+      </c>
+      <c r="B75" s="6">
         <v>45501</v>
       </c>
       <c r="C75" s="10">
-        <v>24420</v>
-      </c>
-      <c r="D75" s="11">
-        <v>11368.16</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
+        <v>24422</v>
+      </c>
+      <c r="D75" s="12">
+        <v>15895.29</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="14">
         <f t="shared" si="1"/>
-        <v>11368.16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15895.29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="9">
+        <v>44</v>
+      </c>
+      <c r="B76" s="6">
         <v>45501</v>
       </c>
       <c r="C76" s="10">
-        <v>24421</v>
-      </c>
-      <c r="D76" s="11">
-        <v>2213.27</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
+        <v>24423</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1106.6400000000001</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6"/>
       <c r="G76" s="14">
         <f t="shared" si="1"/>
-        <v>2213.27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1106.6400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="9">
+        <v>45</v>
+      </c>
+      <c r="B77" s="6">
         <v>45501</v>
       </c>
       <c r="C77" s="10">
-        <v>24422</v>
-      </c>
-      <c r="D77" s="11">
-        <v>15895.29</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
+        <v>24424</v>
+      </c>
+      <c r="D77" s="12">
+        <v>603.62</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6"/>
       <c r="G77" s="14">
         <f t="shared" si="1"/>
-        <v>15895.29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>603.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="9">
+        <v>46</v>
+      </c>
+      <c r="B78" s="6">
         <v>45501</v>
       </c>
       <c r="C78" s="10">
-        <v>24423</v>
-      </c>
-      <c r="D78" s="11">
-        <v>1106.6400000000001</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
+        <v>24425</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1207.24</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="14">
         <f t="shared" si="1"/>
-        <v>1106.6400000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1207.24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="9">
+        <v>47</v>
+      </c>
+      <c r="B79" s="6">
         <v>45501</v>
       </c>
       <c r="C79" s="10">
-        <v>24424</v>
-      </c>
-      <c r="D79" s="11">
-        <v>603.62</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
+        <v>24426</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1710.26</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="14">
         <f t="shared" si="1"/>
-        <v>603.62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1710.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="9">
+        <v>48</v>
+      </c>
+      <c r="B80" s="6">
         <v>45501</v>
       </c>
       <c r="C80" s="10">
-        <v>24425</v>
-      </c>
-      <c r="D80" s="11">
-        <v>1207.24</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
+        <v>24427</v>
+      </c>
+      <c r="D80" s="12">
+        <v>6338</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6"/>
       <c r="G80" s="14">
         <f t="shared" si="1"/>
-        <v>1207.24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="9">
+        <v>49</v>
+      </c>
+      <c r="B81" s="6">
         <v>45501</v>
       </c>
       <c r="C81" s="10">
-        <v>24426</v>
-      </c>
-      <c r="D81" s="11">
-        <v>1710.26</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
+        <v>24428</v>
+      </c>
+      <c r="D81" s="12">
+        <v>11307.79</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="14">
         <f t="shared" si="1"/>
-        <v>1710.26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11307.79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="9">
+        <v>50</v>
+      </c>
+      <c r="B82" s="6">
         <v>45501</v>
       </c>
       <c r="C82" s="10">
-        <v>24427</v>
-      </c>
-      <c r="D82" s="11">
-        <v>6338</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
+        <v>24430</v>
+      </c>
+      <c r="D82" s="12">
+        <v>2012.06</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6"/>
       <c r="G82" s="14">
         <f t="shared" si="1"/>
-        <v>6338</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2012.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="9">
+        <v>51</v>
+      </c>
+      <c r="B83" s="6">
         <v>45501</v>
       </c>
       <c r="C83" s="10">
-        <v>24428</v>
-      </c>
-      <c r="D83" s="11">
-        <v>11307.79</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
+        <v>24431</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1609.65</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6"/>
       <c r="G83" s="14">
         <f t="shared" si="1"/>
-        <v>11307.79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1609.65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="9">
+        <v>52</v>
+      </c>
+      <c r="B84" s="6">
         <v>45501</v>
       </c>
       <c r="C84" s="10">
-        <v>24430</v>
-      </c>
-      <c r="D84" s="11">
-        <v>2012.06</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
+        <v>24432</v>
+      </c>
+      <c r="D84" s="12">
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6"/>
       <c r="G84" s="14">
         <f t="shared" si="1"/>
-        <v>2012.06</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9557.2999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="9">
+        <v>53</v>
+      </c>
+      <c r="B85" s="6">
         <v>45501</v>
       </c>
       <c r="C85" s="10">
-        <v>24431</v>
-      </c>
-      <c r="D85" s="11">
-        <v>1609.65</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
+        <v>24433</v>
+      </c>
+      <c r="D85" s="12">
+        <v>5030.16</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6"/>
       <c r="G85" s="14">
         <f t="shared" si="1"/>
-        <v>1609.65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5030.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="9">
+        <v>54</v>
+      </c>
+      <c r="B86" s="6">
         <v>45501</v>
       </c>
       <c r="C86" s="10">
-        <v>24432</v>
-      </c>
-      <c r="D86" s="11">
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="13"/>
+        <v>24434</v>
+      </c>
+      <c r="D86" s="12">
+        <v>5935.59</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6"/>
       <c r="G86" s="14">
         <f t="shared" si="1"/>
-        <v>9557.2999999999993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5935.59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="9">
+        <v>55</v>
+      </c>
+      <c r="B87" s="6">
         <v>45501</v>
       </c>
       <c r="C87" s="10">
-        <v>24433</v>
-      </c>
-      <c r="D87" s="11">
-        <v>5030.16</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
+        <v>24435</v>
+      </c>
+      <c r="D87" s="12">
+        <v>9586.0499999999993</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6"/>
       <c r="G87" s="14">
         <f t="shared" si="1"/>
-        <v>5030.16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9586.0499999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="9">
+        <v>56</v>
+      </c>
+      <c r="B88" s="6">
         <v>45501</v>
       </c>
       <c r="C88" s="10">
-        <v>24434</v>
-      </c>
-      <c r="D88" s="11">
-        <v>5935.59</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13"/>
+        <v>24436</v>
+      </c>
+      <c r="D88" s="12">
+        <v>905.43</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6"/>
       <c r="G88" s="14">
         <f t="shared" si="1"/>
-        <v>5935.59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>905.43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="9">
+        <v>57</v>
+      </c>
+      <c r="B89" s="6">
         <v>45501</v>
       </c>
       <c r="C89" s="10">
-        <v>24435</v>
-      </c>
-      <c r="D89" s="11">
-        <v>9586.0499999999993</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
+        <v>24439</v>
+      </c>
+      <c r="D89" s="12">
+        <v>503.02</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6"/>
       <c r="G89" s="14">
         <f t="shared" si="1"/>
-        <v>9586.0499999999993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>503.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="9">
+        <v>58</v>
+      </c>
+      <c r="B90" s="6">
         <v>45501</v>
       </c>
       <c r="C90" s="10">
-        <v>24436</v>
-      </c>
-      <c r="D90" s="11">
-        <v>905.43</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
+        <v>24440</v>
+      </c>
+      <c r="D90" s="12">
+        <v>1509.05</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6"/>
       <c r="G90" s="14">
         <f t="shared" si="1"/>
-        <v>905.43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1509.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="9">
+        <v>59</v>
+      </c>
+      <c r="B91" s="6">
         <v>45501</v>
       </c>
       <c r="C91" s="10">
-        <v>24439</v>
-      </c>
-      <c r="D91" s="11">
+        <v>24441</v>
+      </c>
+      <c r="D91" s="12">
         <v>503.02</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
+      <c r="E91" s="12">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6"/>
       <c r="G91" s="14">
         <f t="shared" si="1"/>
         <v>503.02</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B92" s="9">
+        <v>60</v>
+      </c>
+      <c r="B92" s="6">
         <v>45501</v>
       </c>
       <c r="C92" s="10">
-        <v>24440</v>
-      </c>
-      <c r="D92" s="11">
-        <v>1509.05</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
+        <v>24443</v>
+      </c>
+      <c r="D92" s="12">
+        <v>301.81</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6"/>
       <c r="G92" s="14">
         <f t="shared" si="1"/>
-        <v>1509.05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301.81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" s="9">
+        <v>61</v>
+      </c>
+      <c r="B93" s="6">
         <v>45501</v>
       </c>
       <c r="C93" s="10">
-        <v>24441</v>
-      </c>
-      <c r="D93" s="11">
-        <v>503.02</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
+        <v>24444</v>
+      </c>
+      <c r="D93" s="12">
+        <v>2313.88</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6"/>
       <c r="G93" s="14">
         <f t="shared" si="1"/>
-        <v>503.02</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2313.88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="9">
+        <v>62</v>
+      </c>
+      <c r="B94" s="6">
         <v>45501</v>
       </c>
       <c r="C94" s="10">
-        <v>24443</v>
-      </c>
-      <c r="D94" s="11">
-        <v>301.81</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13"/>
+        <v>24446</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1810.86</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6"/>
       <c r="G94" s="14">
         <f t="shared" si="1"/>
-        <v>301.81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1810.86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="9">
+        <v>63</v>
+      </c>
+      <c r="B95" s="6">
         <v>45501</v>
       </c>
       <c r="C95" s="10">
-        <v>24444</v>
-      </c>
-      <c r="D95" s="11">
-        <v>2313.88</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
+        <v>24447</v>
+      </c>
+      <c r="D95" s="12">
+        <v>704.23</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6"/>
       <c r="G95" s="14">
         <f t="shared" si="1"/>
-        <v>2313.88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>704.23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="9">
+        <v>64</v>
+      </c>
+      <c r="B96" s="6">
         <v>45501</v>
       </c>
       <c r="C96" s="10">
-        <v>24446</v>
-      </c>
-      <c r="D96" s="11">
-        <v>1810.86</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
+        <v>24448</v>
+      </c>
+      <c r="D96" s="12">
+        <v>2917.5</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6"/>
       <c r="G96" s="14">
         <f t="shared" si="1"/>
-        <v>1810.86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2917.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="9">
+        <v>65</v>
+      </c>
+      <c r="B97" s="6">
         <v>45501</v>
       </c>
       <c r="C97" s="10">
-        <v>24447</v>
-      </c>
-      <c r="D97" s="11">
-        <v>704.23</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
+        <v>24449</v>
+      </c>
+      <c r="D97" s="12">
+        <v>3420.51</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6"/>
       <c r="G97" s="14">
         <f t="shared" si="1"/>
-        <v>704.23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3420.51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" s="9">
+        <v>66</v>
+      </c>
+      <c r="B98" s="6">
         <v>45501</v>
       </c>
       <c r="C98" s="10">
-        <v>24448</v>
-      </c>
-      <c r="D98" s="11">
-        <v>2917.5</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
+        <v>24450</v>
+      </c>
+      <c r="D98" s="12">
+        <v>3018.09</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6"/>
       <c r="G98" s="14">
         <f t="shared" si="1"/>
-        <v>2917.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3018.09</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="9">
+        <v>67</v>
+      </c>
+      <c r="B99" s="6">
         <v>45501</v>
       </c>
       <c r="C99" s="10">
-        <v>24449</v>
-      </c>
-      <c r="D99" s="11">
-        <v>3420.51</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
+        <v>24451</v>
+      </c>
+      <c r="D99" s="12">
+        <v>3118.7</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="14">
         <f t="shared" si="1"/>
-        <v>3420.51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3118.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B100" s="9">
+        <v>68</v>
+      </c>
+      <c r="B100" s="6">
         <v>45501</v>
       </c>
       <c r="C100" s="10">
-        <v>24450</v>
-      </c>
-      <c r="D100" s="11">
-        <v>3018.09</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
+        <v>24452</v>
+      </c>
+      <c r="D100" s="12">
+        <v>704.23</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="14">
         <f t="shared" si="1"/>
-        <v>3018.09</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>704.23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="9">
+        <v>69</v>
+      </c>
+      <c r="B101" s="6">
         <v>45501</v>
       </c>
       <c r="C101" s="10">
-        <v>24451</v>
-      </c>
-      <c r="D101" s="11">
-        <v>3118.7</v>
-      </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
+        <v>24453</v>
+      </c>
+      <c r="D101" s="12">
+        <v>14688.06</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6"/>
       <c r="G101" s="14">
         <f t="shared" si="1"/>
-        <v>3118.7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14688.06</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="9">
-        <v>45501</v>
+        <v>70</v>
+      </c>
+      <c r="B102" s="6">
+        <v>45502</v>
       </c>
       <c r="C102" s="10">
-        <v>24452</v>
-      </c>
-      <c r="D102" s="11">
-        <v>704.23</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
+        <v>24454</v>
+      </c>
+      <c r="D102" s="12">
+        <v>2313.88</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6"/>
       <c r="G102" s="14">
         <f t="shared" si="1"/>
+        <v>2313.88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="6">
+        <v>45502</v>
+      </c>
+      <c r="C103" s="10">
+        <v>24456</v>
+      </c>
+      <c r="D103" s="12">
         <v>704.23</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="9">
-        <v>45501</v>
-      </c>
-      <c r="C103" s="10">
-        <v>24453</v>
-      </c>
-      <c r="D103" s="11">
-        <v>14688.06</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6"/>
       <c r="G103" s="14">
         <f t="shared" si="1"/>
-        <v>14688.06</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>704.23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="9">
+        <v>72</v>
+      </c>
+      <c r="B104" s="6">
         <v>45502</v>
       </c>
       <c r="C104" s="10">
-        <v>24454</v>
-      </c>
-      <c r="D104" s="11">
+        <v>24457</v>
+      </c>
+      <c r="D104" s="12">
         <v>2313.88</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
+      <c r="E104" s="12">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6"/>
       <c r="G104" s="14">
         <f t="shared" si="1"/>
         <v>2313.88</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" s="9">
+        <v>73</v>
+      </c>
+      <c r="B105" s="6">
         <v>45502</v>
       </c>
       <c r="C105" s="10">
-        <v>24456</v>
-      </c>
-      <c r="D105" s="11">
-        <v>704.23</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
+        <v>24458</v>
+      </c>
+      <c r="D105" s="12">
+        <v>402.41</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6"/>
       <c r="G105" s="14">
         <f t="shared" si="1"/>
-        <v>704.23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>402.41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B106" s="9">
+        <v>74</v>
+      </c>
+      <c r="B106" s="6">
         <v>45502</v>
       </c>
       <c r="C106" s="10">
-        <v>24457</v>
-      </c>
-      <c r="D106" s="11">
-        <v>2313.88</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
+        <v>24459</v>
+      </c>
+      <c r="D106" s="12">
+        <v>2414.48</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6"/>
       <c r="G106" s="14">
         <f t="shared" si="1"/>
-        <v>2313.88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2414.48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B107" s="9">
+        <v>75</v>
+      </c>
+      <c r="B107" s="6">
         <v>45502</v>
       </c>
       <c r="C107" s="10">
-        <v>24458</v>
-      </c>
-      <c r="D107" s="11">
-        <v>402.41</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
+        <v>24460</v>
+      </c>
+      <c r="D107" s="12">
+        <v>301.81</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6"/>
       <c r="G107" s="14">
         <f t="shared" si="1"/>
-        <v>402.41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301.81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" s="9">
+        <v>76</v>
+      </c>
+      <c r="B108" s="6">
         <v>45502</v>
       </c>
       <c r="C108" s="10">
-        <v>24459</v>
-      </c>
-      <c r="D108" s="11">
-        <v>2414.48</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
+        <v>24462</v>
+      </c>
+      <c r="D108" s="12">
+        <v>3018.09</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6"/>
       <c r="G108" s="14">
         <f t="shared" si="1"/>
-        <v>2414.48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3018.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" s="9">
+        <v>77</v>
+      </c>
+      <c r="B109" s="6">
         <v>45502</v>
       </c>
       <c r="C109" s="10">
-        <v>24460</v>
-      </c>
-      <c r="D109" s="11">
-        <v>301.81</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
+        <v>24463</v>
+      </c>
+      <c r="D109" s="12">
+        <v>1810.86</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6"/>
       <c r="G109" s="14">
         <f t="shared" si="1"/>
-        <v>301.81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1810.86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="9">
+        <v>78</v>
+      </c>
+      <c r="B110" s="6">
         <v>45502</v>
       </c>
       <c r="C110" s="10">
-        <v>24462</v>
-      </c>
-      <c r="D110" s="11">
-        <v>3018.09</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
+        <v>24464</v>
+      </c>
+      <c r="D110" s="12">
+        <v>1207.24</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="14">
         <f t="shared" si="1"/>
-        <v>3018.09</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1207.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B111" s="9">
+        <v>79</v>
+      </c>
+      <c r="B111" s="6">
         <v>45502</v>
       </c>
       <c r="C111" s="10">
-        <v>24463</v>
-      </c>
-      <c r="D111" s="11">
-        <v>1810.86</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
+        <v>24465</v>
+      </c>
+      <c r="D111" s="12">
+        <v>603.62</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6"/>
       <c r="G111" s="14">
         <f t="shared" si="1"/>
-        <v>1810.86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>603.62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B112" s="9">
+        <v>80</v>
+      </c>
+      <c r="B112" s="6">
         <v>45502</v>
       </c>
       <c r="C112" s="10">
-        <v>24464</v>
-      </c>
-      <c r="D112" s="11">
-        <v>1207.24</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
+        <v>24466</v>
+      </c>
+      <c r="D112" s="12">
+        <v>503.02</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="14">
         <f t="shared" si="1"/>
-        <v>1207.24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>503.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B113" s="9">
+        <v>81</v>
+      </c>
+      <c r="B113" s="6">
         <v>45502</v>
       </c>
       <c r="C113" s="10">
-        <v>24465</v>
-      </c>
-      <c r="D113" s="11">
-        <v>603.62</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
+        <v>24467</v>
+      </c>
+      <c r="D113" s="12">
+        <v>704.23</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6"/>
       <c r="G113" s="14">
         <f t="shared" si="1"/>
-        <v>603.62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>704.23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B114" s="9">
+        <v>82</v>
+      </c>
+      <c r="B114" s="6">
         <v>45502</v>
       </c>
       <c r="C114" s="10">
-        <v>24466</v>
-      </c>
-      <c r="D114" s="11">
-        <v>503.02</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
+        <v>24468</v>
+      </c>
+      <c r="D114" s="12">
+        <v>905.43</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0</v>
+      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="14">
         <f t="shared" si="1"/>
-        <v>503.02</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>905.43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="9">
+        <v>83</v>
+      </c>
+      <c r="B115" s="6">
         <v>45502</v>
       </c>
       <c r="C115" s="10">
-        <v>24467</v>
-      </c>
-      <c r="D115" s="11">
-        <v>704.23</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
+        <v>24469</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1408.44</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0</v>
+      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="14">
         <f t="shared" si="1"/>
-        <v>704.23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1408.44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="9">
+        <v>84</v>
+      </c>
+      <c r="B116" s="6">
         <v>45502</v>
       </c>
       <c r="C116" s="10">
-        <v>24468</v>
-      </c>
-      <c r="D116" s="11">
-        <v>905.43</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
+        <v>24470</v>
+      </c>
+      <c r="D116" s="12">
+        <v>12963.43</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
+      <c r="F116" s="6"/>
       <c r="G116" s="14">
         <f t="shared" si="1"/>
-        <v>905.43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12963.43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="9">
+        <v>85</v>
+      </c>
+      <c r="B117" s="6">
         <v>45502</v>
       </c>
       <c r="C117" s="10">
-        <v>24469</v>
-      </c>
-      <c r="D117" s="11">
-        <v>1408.44</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
+        <v>24471</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1509.05</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0</v>
+      </c>
+      <c r="F117" s="6"/>
       <c r="G117" s="14">
         <f t="shared" si="1"/>
-        <v>1408.44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1509.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="9">
-        <v>45502</v>
+        <v>86</v>
+      </c>
+      <c r="B118" s="6">
+        <v>45503</v>
       </c>
       <c r="C118" s="10">
-        <v>24470</v>
-      </c>
-      <c r="D118" s="11">
-        <v>12963.43</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
+        <v>24472</v>
+      </c>
+      <c r="D118" s="12">
+        <v>13279.61</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0</v>
+      </c>
+      <c r="F118" s="6"/>
       <c r="G118" s="14">
         <f t="shared" si="1"/>
-        <v>12963.43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13279.61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="9">
-        <v>45502</v>
+        <v>87</v>
+      </c>
+      <c r="B119" s="6">
+        <v>45504</v>
       </c>
       <c r="C119" s="10">
-        <v>24471</v>
-      </c>
-      <c r="D119" s="11">
-        <v>1509.05</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
+        <v>24473</v>
+      </c>
+      <c r="D119" s="12">
+        <v>6740.41</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6"/>
       <c r="G119" s="14">
         <f t="shared" si="1"/>
-        <v>1509.05</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6740.41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="9">
-        <v>45503</v>
+        <v>88</v>
+      </c>
+      <c r="B120" s="6">
+        <v>45504</v>
       </c>
       <c r="C120" s="10">
-        <v>24472</v>
-      </c>
-      <c r="D120" s="11">
-        <v>13279.61</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
+        <v>24474</v>
+      </c>
+      <c r="D120" s="12">
+        <v>905.43</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="6"/>
       <c r="G120" s="14">
         <f t="shared" si="1"/>
-        <v>13279.61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="9">
-        <v>45504</v>
-      </c>
-      <c r="C121" s="10">
-        <v>24473</v>
-      </c>
-      <c r="D121" s="11">
-        <v>6740.41</v>
-      </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="14">
-        <f t="shared" si="1"/>
-        <v>6740.41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="9">
-        <v>45504</v>
-      </c>
-      <c r="C122" s="10">
-        <v>24474</v>
-      </c>
-      <c r="D122" s="11">
         <v>905.43</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="14">
-        <f t="shared" si="1"/>
-        <v>905.43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="19">
-        <f>SUM(G1:G122)</f>
-        <v>401270.98999999993</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D124" s="21"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D125" s="21"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G123" xr:uid="{EA085E82-7009-4BDE-829A-4D1A3AE60AE5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G123">
-      <sortCondition ref="C3:C123"/>
+  <autoFilter ref="A1:G120" xr:uid="{EA085E82-7009-4BDE-829A-4D1A3AE60AE5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G120">
+      <sortCondition ref="C1:C120"/>
     </sortState>
   </autoFilter>
   <dataConsolidate link="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A4:XFD123">
+  <conditionalFormatting sqref="A2:G968">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)</formula>
+      <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A123" xr:uid="{24D761E2-475B-497E-A7AB-0EB72A713765}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A120" xr:uid="{24D761E2-475B-497E-A7AB-0EB72A713765}">
       <formula1>Liste_clients</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="119" scale="67" fitToHeight="10" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="92" fitToHeight="10" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>